--- a/books/carbomica_progbook_mt_darwin.xlsx
+++ b/books/carbomica_progbook_mt_darwin.xlsx
@@ -39,7 +39,7 @@
     <t>solar_system</t>
   </si>
   <si>
-    <t>Solar sytem</t>
+    <t>Solar system</t>
   </si>
   <si>
     <t>Y</t>
@@ -54,13 +54,13 @@
     <t>low_gpw_anaesthetic_gases</t>
   </si>
   <si>
-    <t>Low gpw anaesthetic gases</t>
+    <t>Low GPW anaesthetic gases</t>
   </si>
   <si>
     <t>low_gpw_refridgerant_gases</t>
   </si>
   <si>
-    <t>Low gpw refridgerant gases</t>
+    <t>Low GPW refridgerant gases</t>
   </si>
   <si>
     <t>water_efficient_fixtures_and_appliances</t>
@@ -72,7 +72,7 @@
     <t>low_gpw_inhalers</t>
   </si>
   <si>
-    <t>Low gpw inhalers</t>
+    <t>Low GPW inhalers</t>
   </si>
   <si>
     <t>Provenance</t>
@@ -873,7 +873,7 @@
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5">
-        <v>12500</v>
+        <v>62500</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>25</v>
@@ -969,7 +969,7 @@
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5">
-        <v>9400</v>
+        <v>18800</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>25</v>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5">
-        <v>12</v>
+        <v>358</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>25</v>
@@ -1353,7 +1353,7 @@
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="5">
-        <v>33</v>
+        <v>19734</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>25</v>
@@ -1745,7 +1745,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="5">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
@@ -1811,7 +1811,7 @@
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="5">
-        <v>0.25</v>
+        <v>0.28</v>
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="5">
-        <v>0.25</v>
+        <v>0.28</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
